--- a/dat_accuracy_O.xlsx
+++ b/dat_accuracy_O.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbkot\OneDrive - WageningenUR\Msc Biology WUR\Thesis\Final Report\Article Scientific Reports\Supplementary Analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b876cc13d5ca03e6/Documents/Wageningen University/Msc Biology WUR/Thesis/Final Report/Article Scientific Reports/Supplementary Analyses/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AEECD778C3A7C3C43AE84F423AEE709F25630B8E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97934D9E-74C9-4D1D-9537-D23B73BE20C3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{90C811E5-4436-4DF7-8020-81EFAACDC89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F793316F-04B0-4DDF-82E3-C8B07B7BD436}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Years" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>c</t>
   </si>
@@ -281,160 +271,7 @@
     <t>77</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Bias</t>
+    <t>Mean Bias</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -477,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -789,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:F132"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>-40</v>
       </c>
       <c r="D2">
-        <v>-1.4895880766763152</v>
+        <v>-8.292766745087695</v>
       </c>
       <c r="E2">
-        <v>5.2335965190072171</v>
+        <v>2.7406277003843349</v>
       </c>
       <c r="F2">
-        <v>-1.64554854274785</v>
+        <v>-8.7082432427715428</v>
       </c>
       <c r="G2">
-        <v>5.0499223016986923</v>
+        <v>2.8246906959857485</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,22 +682,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-35</v>
       </c>
       <c r="D3">
-        <v>-1.0830174353563073</v>
+        <v>-9.3088599563898864</v>
       </c>
       <c r="E3">
-        <v>2.8216909940982657</v>
+        <v>4.4301703181371002</v>
       </c>
       <c r="F3">
-        <v>-2.1663256871094081</v>
+        <v>-10.610949282196563</v>
       </c>
       <c r="G3">
-        <v>3.6177159453335848</v>
+        <v>7.1707515112579445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,22 +705,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>-30</v>
       </c>
       <c r="D4">
-        <v>0.7675993677246471</v>
+        <v>-8.6875089383022601</v>
       </c>
       <c r="E4">
-        <v>3.3146620869785788</v>
+        <v>3.011178162572449</v>
       </c>
       <c r="F4">
-        <v>0.6146254156063885</v>
+        <v>-10.446015280296701</v>
       </c>
       <c r="G4">
-        <v>3.3686510859665484</v>
+        <v>4.8285710265882171</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,22 +728,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>-25</v>
       </c>
       <c r="D5">
-        <v>-0.47212271901813951</v>
+        <v>-16.157866877578677</v>
       </c>
       <c r="E5">
-        <v>3.5563681181456044</v>
+        <v>20.979947707418603</v>
       </c>
       <c r="F5">
-        <v>-0.61482602251338003</v>
+        <v>-8.9603816701883741</v>
       </c>
       <c r="G5">
-        <v>3.4150185564312605</v>
+        <v>2.6737783442266028</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,22 +751,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>-20</v>
       </c>
       <c r="D6">
-        <v>-2.3849837354767649</v>
+        <v>-6.3513559353103721</v>
       </c>
       <c r="E6">
-        <v>2.557650285982739</v>
+        <v>1.8880134773051318</v>
       </c>
       <c r="F6">
-        <v>-2.5099973165537874</v>
+        <v>-6.3843399333880093</v>
       </c>
       <c r="G6">
-        <v>2.4375190408588336</v>
+        <v>1.8963893798639866</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,22 +774,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>-15</v>
       </c>
       <c r="D7">
-        <v>-0.87915627984317968</v>
+        <v>-6.0022877497383424</v>
       </c>
       <c r="E7">
-        <v>1.7090449586762606</v>
+        <v>1.2926492325814447</v>
       </c>
       <c r="F7">
-        <v>-1.1891511676085087</v>
+        <v>-6.0176871828661262</v>
       </c>
       <c r="G7">
-        <v>1.6378438466595262</v>
+        <v>1.2791181542736432</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,22 +797,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>-10</v>
       </c>
       <c r="D8">
-        <v>-0.17821094062892467</v>
+        <v>-4.8927509658433399</v>
       </c>
       <c r="E8">
-        <v>1.141924091641481</v>
+        <v>1.2415343206893836</v>
       </c>
       <c r="F8">
-        <v>-0.42619902375109675</v>
+        <v>-4.9012727960199127</v>
       </c>
       <c r="G8">
-        <v>1.1791565291363433</v>
+        <v>1.2685131604747444</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,22 +820,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-40</v>
       </c>
       <c r="D9">
-        <v>-0.60503595158823353</v>
+        <v>-41.231047207056946</v>
       </c>
       <c r="E9">
-        <v>1.7182601561336595</v>
+        <v>101.42923044606717</v>
       </c>
       <c r="F9">
-        <v>-1.3091080744344465</v>
+        <v>-15.635105357515798</v>
       </c>
       <c r="G9">
-        <v>1.5723905428430451</v>
+        <v>29.08945215068383</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="D10">
-        <v>3.1557706905892582</v>
+        <v>-27.095864257800304</v>
       </c>
       <c r="E10">
-        <v>2.2402491721080087</v>
+        <v>56.284114681071195</v>
       </c>
       <c r="F10">
-        <v>3.2972120834472589</v>
+        <v>-8.0922867606630824</v>
       </c>
       <c r="G10">
-        <v>2.1209851211341095</v>
+        <v>3.43825400826154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D11">
-        <v>-2.0154644250469516</v>
+        <v>-9.165404987410227</v>
       </c>
       <c r="E11">
-        <v>3.4613866614354563</v>
+        <v>3.5595217415926137</v>
       </c>
       <c r="F11">
-        <v>-2.5748053343394002</v>
+        <v>-8.9061397877850741</v>
       </c>
       <c r="G11">
-        <v>2.5146202404681421</v>
+        <v>3.0872784304191954</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,22 +889,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="D12">
-        <v>-1.0855421761404247</v>
+        <v>-5.8814969590159869</v>
       </c>
       <c r="E12">
-        <v>3.1158649963024287</v>
+        <v>1.3245708113479628</v>
       </c>
       <c r="F12">
-        <v>-1.1928218773159336</v>
+        <v>-5.9206775460537795</v>
       </c>
       <c r="G12">
-        <v>3.1173470407410351</v>
+        <v>1.305293923144438</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,22 +912,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D13">
-        <v>-9.3776907375212382E-2</v>
+        <v>-5.845792195373626</v>
       </c>
       <c r="E13">
-        <v>3.9604187897321435</v>
+        <v>1.5058149255076529</v>
       </c>
       <c r="F13">
-        <v>-0.15967559084118405</v>
+        <v>-5.8538011886629224</v>
       </c>
       <c r="G13">
-        <v>3.8603136389654669</v>
+        <v>1.5366475687213264</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,22 +935,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="D14">
-        <v>0.49833898891248302</v>
+        <v>-4.9452078376059747</v>
       </c>
       <c r="E14">
-        <v>1.1953068874426271</v>
+        <v>1.7482456281115644</v>
       </c>
       <c r="F14">
-        <v>0.15277785389586448</v>
+        <v>-4.9632965428954172</v>
       </c>
       <c r="G14">
-        <v>1.1259447445467554</v>
+        <v>1.7855898639427679</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,22 +958,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D15">
-        <v>-1.0530380149297633</v>
+        <v>-4.7625841704848533</v>
       </c>
       <c r="E15">
-        <v>1.7469513174305866</v>
+        <v>1.0590186393665797</v>
       </c>
       <c r="F15">
-        <v>-1.467584871138202</v>
+        <v>-4.7497308323124292</v>
       </c>
       <c r="G15">
-        <v>1.5854027009980247</v>
+        <v>1.0706416712119655</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,22 +981,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="D16">
-        <v>0.39306107550728686</v>
+        <v>-7.6815116252042657</v>
       </c>
       <c r="E16">
-        <v>1.466014787848154</v>
+        <v>3.5580827009816143</v>
       </c>
       <c r="F16">
-        <v>-0.16297817316686936</v>
+        <v>-4.9272128020201249</v>
       </c>
       <c r="G16">
-        <v>1.4075052851728092</v>
+        <v>5.0944646935002638</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,22 +1004,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="D17">
-        <v>0.76978521180638904</v>
+        <v>-4.5811183639263104</v>
       </c>
       <c r="E17">
-        <v>1.1256848035579794</v>
+        <v>2.987577944083557</v>
       </c>
       <c r="F17">
-        <v>-0.15742031672682147</v>
+        <v>-3.5726222258048934</v>
       </c>
       <c r="G17">
-        <v>1.0074174339763533</v>
+        <v>2.060971434672155</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,22 +1027,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="D18">
-        <v>-1.9484073228011833</v>
+        <v>-5.8951268594647157</v>
       </c>
       <c r="E18">
-        <v>4.8020608458300558</v>
+        <v>1.536598252818393</v>
       </c>
       <c r="F18">
-        <v>-1.727884184543742</v>
+        <v>-5.7185020760962493</v>
       </c>
       <c r="G18">
-        <v>4.6863542448384363</v>
+        <v>1.5494882492122268</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,22 +1050,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="D19">
-        <v>0.6565982328244625</v>
+        <v>-6.1876851199915937</v>
       </c>
       <c r="E19">
-        <v>2.7963813404034323</v>
+        <v>1.799585667285738</v>
       </c>
       <c r="F19">
-        <v>0.52031316648394266</v>
+        <v>-4.5468762255000001</v>
       </c>
       <c r="G19">
-        <v>2.7411284606095006</v>
+        <v>1.2359754999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,22 +1073,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D20">
-        <v>-0.9153797185257162</v>
+        <v>-4.3042680817447661</v>
       </c>
       <c r="E20">
-        <v>2.1299654304892126</v>
+        <v>1.2201159230943708</v>
       </c>
       <c r="F20">
-        <v>-1.2411884917425784</v>
+        <v>-4.2770170023924692</v>
       </c>
       <c r="G20">
-        <v>2.2343273955118552</v>
+        <v>1.2305883383401035</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,22 +1096,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="D21">
-        <v>0.35561829777926462</v>
+        <v>-3.4838974892849608</v>
       </c>
       <c r="E21">
-        <v>2.3770830462943437</v>
+        <v>1.1627493708134147</v>
       </c>
       <c r="F21">
-        <v>2.876148680780277E-3</v>
+        <v>-3.4431242417137273</v>
       </c>
       <c r="G21">
-        <v>2.2222397702970795</v>
+        <v>1.1846666454427701</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,22 +1119,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D22">
-        <v>-0.65889004730819123</v>
+        <v>-3.1597667006525048</v>
       </c>
       <c r="E22">
-        <v>2.0234295932127306</v>
+        <v>0.71886908920712811</v>
       </c>
       <c r="F22">
-        <v>-1.0911517201633743</v>
+        <v>-3.0818391280527071</v>
       </c>
       <c r="G22">
-        <v>2.0049908511406787</v>
+        <v>0.75271446250405982</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,22 +1142,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="D23">
-        <v>-0.52139915248596269</v>
+        <v>-14.416736050704154</v>
       </c>
       <c r="E23">
-        <v>1.3545929520421276</v>
+        <v>17.133603879731638</v>
       </c>
       <c r="F23">
-        <v>-1.5326144503677053</v>
+        <v>-7.9463602889183287</v>
       </c>
       <c r="G23">
-        <v>2.018098478472782</v>
+        <v>7.6233271211893081</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,22 +1165,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>-10</v>
+        <v>-35</v>
       </c>
       <c r="D24">
-        <v>0.5972756838683545</v>
+        <v>-5.0097901570885819</v>
       </c>
       <c r="E24">
-        <v>1.3770451862332092</v>
+        <v>2.6719073447916162</v>
       </c>
       <c r="F24">
-        <v>-7.5441190158661173E-2</v>
+        <v>-5.0015635748208078</v>
       </c>
       <c r="G24">
-        <v>1.2634530129396848</v>
+        <v>2.6871950329618484</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,22 +1188,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D25">
-        <v>-3.7430692254861599E-2</v>
+        <v>-4.7212749644839542</v>
       </c>
       <c r="E25">
-        <v>1.4626123194234972</v>
+        <v>1.8858639987229997</v>
       </c>
       <c r="F25">
-        <v>-1.0584870199218281</v>
+        <v>-4.6993146141601461</v>
       </c>
       <c r="G25">
-        <v>1.6056609550293122</v>
+        <v>1.8978336170733898</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,22 +1211,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="D26">
-        <v>-1.5570096644860087</v>
+        <v>-3.2965143276451569</v>
       </c>
       <c r="E26">
-        <v>3.3511410435933922</v>
+        <v>1.6976186918850917</v>
       </c>
       <c r="F26">
-        <v>-1.5970314622820807</v>
+        <v>-3.2548206724077833</v>
       </c>
       <c r="G26">
-        <v>3.3092678055895139</v>
+        <v>1.7139833612111499</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,22 +1234,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="D27">
-        <v>3.5202000319415432</v>
+        <v>-3.4325977577679749</v>
       </c>
       <c r="E27">
-        <v>3.1474037669425385</v>
+        <v>1.4642402619084562</v>
       </c>
       <c r="F27">
-        <v>3.4762274828489117</v>
+        <v>-3.4697384711064205</v>
       </c>
       <c r="G27">
-        <v>3.1055509776140853</v>
+        <v>1.4654143221702882</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,22 +1257,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="D28">
-        <v>1.4393178797941755</v>
+        <v>-3.4930655662499732</v>
       </c>
       <c r="E28">
-        <v>1.9768223717453015</v>
+        <v>1.2400813120510139</v>
       </c>
       <c r="F28">
-        <v>1.0320061331533839</v>
+        <v>-3.4173417196465814</v>
       </c>
       <c r="G28">
-        <v>1.9220883163163511</v>
+        <v>1.2587562970236885</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,22 +1280,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="D29">
-        <v>0.42433127666914788</v>
+        <v>-3.2018091425122321</v>
       </c>
       <c r="E29">
-        <v>4.3794186288057286</v>
+        <v>0.82206711939175658</v>
       </c>
       <c r="F29">
-        <v>-0.17583991001798446</v>
+        <v>-3.1055425938788916</v>
       </c>
       <c r="G29">
-        <v>4.2634925684122642</v>
+        <v>0.85290916436106967</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,22 +1303,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D30">
-        <v>-1.0606445374480031</v>
+        <v>-4.0682011064093135</v>
       </c>
       <c r="E30">
-        <v>2.6987237196395806</v>
+        <v>2.8964788662117389</v>
       </c>
       <c r="F30">
-        <v>-1.3934673185461979</v>
+        <v>-3.7508975572615166</v>
       </c>
       <c r="G30">
-        <v>2.6194429201318661</v>
+        <v>3.0602106748789528</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,22 +1326,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="D31">
-        <v>-6.2481251382090888E-2</v>
+        <v>-4.3674236953802099</v>
       </c>
       <c r="E31">
-        <v>2.3094729983114117</v>
+        <v>2.1365066099982397</v>
       </c>
       <c r="F31">
-        <v>-0.71003864542158246</v>
+        <v>-4.3120097658328929</v>
       </c>
       <c r="G31">
-        <v>2.365665049894579</v>
+        <v>2.1488546950460936</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,22 +1349,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D32">
-        <v>-0.60105317165698768</v>
+        <v>-2.8264503726957622</v>
       </c>
       <c r="E32">
-        <v>1.3073990466700491</v>
+        <v>1.4698912383723679</v>
       </c>
       <c r="F32">
-        <v>-1.7626631300290474</v>
+        <v>-2.7910682165026923</v>
       </c>
       <c r="G32">
-        <v>1.5870403626191365</v>
+        <v>1.4948444532227829</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,22 +1372,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="D33">
-        <v>9.3710350356353264E-2</v>
+        <v>-3.6599778563508001</v>
       </c>
       <c r="E33">
-        <v>1.4297677672066753</v>
+        <v>1.9075780972339857</v>
       </c>
       <c r="F33">
-        <v>-1.2361923379771218</v>
+        <v>-3.620887037569033</v>
       </c>
       <c r="G33">
-        <v>1.419726456960813</v>
+        <v>1.9233193980766066</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,22 +1395,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D34">
-        <v>-0.55875147087184529</v>
+        <v>-3.4431678182849659</v>
       </c>
       <c r="E34">
-        <v>3.3646952753718544</v>
+        <v>1.6190423783620003</v>
       </c>
       <c r="F34">
-        <v>-0.69861009673068675</v>
+        <v>-3.3838878764702689</v>
       </c>
       <c r="G34">
-        <v>3.2338248674122343</v>
+        <v>1.6374369716352755</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,22 +1418,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>-35</v>
+        <v>-15</v>
       </c>
       <c r="D35">
-        <v>-0.99473903797541396</v>
+        <v>-3.11241094901612</v>
       </c>
       <c r="E35">
-        <v>2.7171444052735505</v>
+        <v>0.99657861989182395</v>
       </c>
       <c r="F35">
-        <v>-1.6604184960523547</v>
+        <v>-3.0087097233831397</v>
       </c>
       <c r="G35">
-        <v>2.7951421571977249</v>
+        <v>1.0207760816519471</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,22 +1441,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="D36">
-        <v>1.1797435998618178</v>
+        <v>-2.6146416382144655</v>
       </c>
       <c r="E36">
-        <v>2.3865906828701675</v>
+        <v>0.93691049700619977</v>
       </c>
       <c r="F36">
-        <v>0.97336258560752154</v>
+        <v>-2.4738243659189103</v>
       </c>
       <c r="G36">
-        <v>2.477634588990175</v>
+        <v>0.96233068550933121</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,22 +1464,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="D37">
-        <v>-0.66336601850318377</v>
+        <v>-2.1332633634704403</v>
       </c>
       <c r="E37">
-        <v>1.381253893613984</v>
+        <v>1.8737168321096318</v>
       </c>
       <c r="F37">
-        <v>-1.0202524874748955</v>
+        <v>3.7003861141335497</v>
       </c>
       <c r="G37">
-        <v>1.2777144487974552</v>
+        <v>17.630593750524451</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,22 +1487,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="D38">
-        <v>-0.20918591886244392</v>
+        <v>-4.1887096271046671</v>
       </c>
       <c r="E38">
-        <v>2.0458311031883265</v>
+        <v>1.6209265268400013</v>
       </c>
       <c r="F38">
-        <v>-1.2344460632597298</v>
+        <v>-13.673209771847295</v>
       </c>
       <c r="G38">
-        <v>2.9393841770824705</v>
+        <v>36.914278644251233</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,22 +1510,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="D39">
-        <v>0.21625993448000261</v>
+        <v>-2.8661834392651264</v>
       </c>
       <c r="E39">
-        <v>1.2703557922267843</v>
+        <v>1.1468020553388689</v>
       </c>
       <c r="F39">
-        <v>-0.73031667286865809</v>
+        <v>-2.8236849773709243</v>
       </c>
       <c r="G39">
-        <v>1.4342214495831851</v>
+        <v>1.1486775574491486</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,22 +1533,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="D40">
-        <v>-9.2752668692273939E-3</v>
+        <v>-3.525589913003969</v>
       </c>
       <c r="E40">
-        <v>1.5165479911300275</v>
+        <v>0.7023282987556283</v>
       </c>
       <c r="F40">
-        <v>-1.1164097712678429</v>
+        <v>-3.4764799919349869</v>
       </c>
       <c r="G40">
-        <v>1.5740394077409594</v>
+        <v>0.7120827905030428</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,22 +1556,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="D41">
-        <v>0.13076070312090007</v>
+        <v>-3.3241871728566035</v>
       </c>
       <c r="E41">
-        <v>1.178100927677064</v>
+        <v>0.88273279634807322</v>
       </c>
       <c r="F41">
-        <v>-1.337394190297909</v>
+        <v>-3.1888497540384244</v>
       </c>
       <c r="G41">
-        <v>1.2869447202299176</v>
+        <v>0.83502515100345898</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,22 +1579,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>-40</v>
+        <v>-15</v>
       </c>
       <c r="D42">
-        <v>1.4731532040237645</v>
+        <v>-2.6487201540085472</v>
       </c>
       <c r="E42">
-        <v>2.1366856148860318</v>
+        <v>0.7354913602113069</v>
       </c>
       <c r="F42">
-        <v>1.370660989894791</v>
+        <v>-2.5334170000040359</v>
       </c>
       <c r="G42">
-        <v>2.2201795169110214</v>
+        <v>0.74756202283307838</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,22 +1602,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>-35</v>
+        <v>-10</v>
       </c>
       <c r="D43">
-        <v>-2.1733533246162224</v>
+        <v>-2.5301170768717536</v>
       </c>
       <c r="E43">
-        <v>1.790764787081216</v>
+        <v>0.54584089471998387</v>
       </c>
       <c r="F43">
-        <v>-3.2893449621940247</v>
+        <v>-2.3176134125990808</v>
       </c>
       <c r="G43">
-        <v>3.1640681433528108</v>
+        <v>0.58143042525859301</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,22 +1625,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="D44">
-        <v>5.6315841650348017E-2</v>
+        <v>-3.2127159169561539</v>
       </c>
       <c r="E44">
-        <v>3.1527585160301936</v>
+        <v>2.1670508851157639</v>
       </c>
       <c r="F44">
-        <v>-0.29166218226151441</v>
+        <v>-1.7092295167833109</v>
       </c>
       <c r="G44">
-        <v>3.342845638220596</v>
+        <v>5.9749106011469326</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,22 +1648,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="D45">
-        <v>-0.6876032183898545</v>
+        <v>-2.8026436270258688</v>
       </c>
       <c r="E45">
-        <v>1.5472483996963524</v>
+        <v>1.898830375363133</v>
       </c>
       <c r="F45">
-        <v>-1.1308458585233683</v>
+        <v>2.143507662855983</v>
       </c>
       <c r="G45">
-        <v>1.5477614128382435</v>
+        <v>14.954774393120129</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,22 +1671,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="D46">
-        <v>0.25236245713374339</v>
+        <v>-2.2865811055825449</v>
       </c>
       <c r="E46">
-        <v>0.57245844729713846</v>
+        <v>1.3965633798357315</v>
       </c>
       <c r="F46">
-        <v>-0.4700573775940603</v>
+        <v>-2.2275054369749534</v>
       </c>
       <c r="G46">
-        <v>0.78378837854265904</v>
+        <v>1.4081834792703616</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="D47">
-        <v>-0.83339032065850716</v>
+        <v>-2.4064602367169954</v>
       </c>
       <c r="E47">
-        <v>1.1489085166297719</v>
+        <v>1.4858443783243052</v>
       </c>
       <c r="F47">
-        <v>-1.6782691800881753</v>
+        <v>-2.3191527690912848</v>
       </c>
       <c r="G47">
-        <v>1.0757226031258067</v>
+        <v>1.5053457507095596</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,22 +1717,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D48">
-        <v>-1.1317651531720236</v>
+        <v>-2.512003143862644</v>
       </c>
       <c r="E48">
-        <v>1.7793830831278936</v>
+        <v>1.1993419623498716</v>
       </c>
       <c r="F48">
-        <v>-2.4424968636160695</v>
+        <v>-2.4009406857798115</v>
       </c>
       <c r="G48">
-        <v>2.0340486523458408</v>
+        <v>1.198767212285458</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,22 +1740,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="D49">
-        <v>0.51721005157698496</v>
+        <v>-2.0028719563274535</v>
       </c>
       <c r="E49">
-        <v>1.5362858485299578</v>
+        <v>0.70989980529765073</v>
       </c>
       <c r="F49">
-        <v>-0.61856927073549106</v>
+        <v>-1.832787804454971</v>
       </c>
       <c r="G49">
-        <v>1.7396383932630306</v>
+        <v>0.71956323234524944</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,22 +1763,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="D50">
-        <v>-0.97527395786455218</v>
+        <v>-2.0856628550481271</v>
       </c>
       <c r="E50">
-        <v>2.972090046618256</v>
+        <v>0.75950246709013347</v>
       </c>
       <c r="F50">
-        <v>-1.3767789241990998</v>
+        <v>-1.8181583042524108</v>
       </c>
       <c r="G50">
-        <v>2.842887815136355</v>
+        <v>0.80009482785840458</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,22 +1786,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="D51">
-        <v>0.98083447067838259</v>
+        <v>-0.63409970299480245</v>
       </c>
       <c r="E51">
-        <v>2.4857728232304166</v>
+        <v>1.8868009562144987</v>
       </c>
       <c r="F51">
-        <v>-1.2163350945035027</v>
+        <v>-0.53996807587202744</v>
       </c>
       <c r="G51">
-        <v>3.8849613894215613</v>
+        <v>1.9467729895909571</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,22 +1809,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="D52">
-        <v>1.6732781599595348</v>
+        <v>-1.3877831411251758</v>
       </c>
       <c r="E52">
-        <v>2.8558408786647718</v>
+        <v>2.4621156060740397</v>
       </c>
       <c r="F52">
-        <v>1.2245314653349286</v>
+        <v>-1.6326266689029647</v>
       </c>
       <c r="G52">
-        <v>2.8369396630751602</v>
+        <v>1.5186088208122972</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,22 +1832,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="D53">
-        <v>-0.43620449591005717</v>
+        <v>-1.2404224558773713</v>
       </c>
       <c r="E53">
-        <v>2.4973070721292272</v>
+        <v>1.3550421734714284</v>
       </c>
       <c r="F53">
-        <v>-1.0046000997223521</v>
+        <v>-1.2630193793446156</v>
       </c>
       <c r="G53">
-        <v>2.342788161310656</v>
+        <v>1.4454736477098347</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,22 +1855,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="D54">
-        <v>-0.18694567017353309</v>
+        <v>-1.1896573644310324</v>
       </c>
       <c r="E54">
-        <v>1.2639985195027839</v>
+        <v>1.1302232526941003</v>
       </c>
       <c r="F54">
-        <v>-1.9801009061262822</v>
+        <v>-1.0986722817043395</v>
       </c>
       <c r="G54">
-        <v>3.02690316423192</v>
+        <v>1.1205271397914922</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,22 +1878,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="D55">
-        <v>-0.16618396824392132</v>
+        <v>-1.1597248882509192</v>
       </c>
       <c r="E55">
-        <v>1.2313691161153528</v>
+        <v>1.0315405883937059</v>
       </c>
       <c r="F55">
-        <v>-1.0670583780665643</v>
+        <v>-1.5546912474534924</v>
       </c>
       <c r="G55">
-        <v>1.1682253573633878</v>
+        <v>1.844292873919241</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,22 +1901,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D56">
-        <v>-2.8371329710914849E-2</v>
+        <v>-1.5704467443769508</v>
       </c>
       <c r="E56">
-        <v>0.94927200529174616</v>
+        <v>0.73980944211493904</v>
       </c>
       <c r="F56">
-        <v>-1.357585950585698</v>
+        <v>-1.331714614019581</v>
       </c>
       <c r="G56">
-        <v>1.2043455776893508</v>
+        <v>0.77528350046613093</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,22 +1924,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D57">
-        <v>0.24800847308209981</v>
+        <v>-1.8391469485791583</v>
       </c>
       <c r="E57">
-        <v>1.3521525549940245</v>
+        <v>0.75917583450100423</v>
       </c>
       <c r="F57">
-        <v>-0.99078695722138632</v>
+        <v>-1.5652301729371703</v>
       </c>
       <c r="G57">
-        <v>1.4726737689948723</v>
+        <v>0.75043033693592476</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,22 +1947,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>-40</v>
       </c>
       <c r="D58">
-        <v>-0.66065440721481461</v>
+        <v>-1.2098489646262871</v>
       </c>
       <c r="E58">
-        <v>3.8343534668921109</v>
+        <v>1.3567820841508467</v>
       </c>
       <c r="F58">
-        <v>-0.76140870209199474</v>
+        <v>-1.1762254821869271</v>
       </c>
       <c r="G58">
-        <v>3.8375198794893857</v>
+        <v>1.3768189716587009</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,22 +1970,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>-35</v>
       </c>
       <c r="D59">
-        <v>-1.4189837888546124</v>
+        <v>-1.3940418852186123</v>
       </c>
       <c r="E59">
-        <v>2.7076937841572852</v>
+        <v>1.074044851925898</v>
       </c>
       <c r="F59">
-        <v>-2.483971114654091</v>
+        <v>-1.3267093037153574</v>
       </c>
       <c r="G59">
-        <v>2.9744368662515206</v>
+        <v>1.070476559319596</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,22 +1993,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>-30</v>
       </c>
       <c r="D60">
-        <v>-0.1588934705902588</v>
+        <v>-0.89946825186306756</v>
       </c>
       <c r="E60">
-        <v>1.3239297444025653</v>
+        <v>0.95542268901175864</v>
       </c>
       <c r="F60">
-        <v>-0.4540219245970139</v>
+        <v>-0.81878508829533148</v>
       </c>
       <c r="G60">
-        <v>1.396708565179164</v>
+        <v>0.97080573107986046</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,22 +2016,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C61">
         <v>-25</v>
       </c>
       <c r="D61">
-        <v>0.15996909473390009</v>
+        <v>-1.1075946992213797</v>
       </c>
       <c r="E61">
-        <v>1.6672929729266084</v>
+        <v>1.2678026455735925</v>
       </c>
       <c r="F61">
-        <v>-1.3056562536682252</v>
+        <v>-0.97190647706493682</v>
       </c>
       <c r="G61">
-        <v>2.7428121464532924</v>
+        <v>1.2576466065378655</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,22 +2039,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>-20</v>
       </c>
       <c r="D62">
-        <v>0.2010630019519784</v>
+        <v>-0.85580120147297034</v>
       </c>
       <c r="E62">
-        <v>1.51186195647671</v>
+        <v>0.79260547107786516</v>
       </c>
       <c r="F62">
-        <v>-0.48638529433388361</v>
+        <v>-0.64647437118991957</v>
       </c>
       <c r="G62">
-        <v>1.5634426235581169</v>
+        <v>0.82144275947285905</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,22 +2062,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>-15</v>
       </c>
       <c r="D63">
-        <v>8.0338302140364165E-2</v>
+        <v>-1.4950067885119187</v>
       </c>
       <c r="E63">
-        <v>1.5037126334462563</v>
+        <v>0.73955789295709717</v>
       </c>
       <c r="F63">
-        <v>-1.1325555366854143</v>
+        <v>-1.2625356152935829</v>
       </c>
       <c r="G63">
-        <v>1.5198771487609233</v>
+        <v>0.76456470659300979</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,22 +2085,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>-10</v>
       </c>
       <c r="D64">
-        <v>0.330391364776354</v>
+        <v>-1.3972023611588109</v>
       </c>
       <c r="E64">
-        <v>1.0424350263718682</v>
+        <v>0.4303412937687297</v>
       </c>
       <c r="F64">
-        <v>-0.60603061213991938</v>
+        <v>-0.9630209518786772</v>
       </c>
       <c r="G64">
-        <v>1.2089694883678472</v>
+        <v>0.47315887401126638</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,22 +2108,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>-5</v>
+        <v>-40</v>
       </c>
       <c r="D65">
-        <v>2.9576416346393408E-2</v>
+        <v>3.6834065862453615E-2</v>
       </c>
       <c r="E65">
-        <v>0.83005360469265421</v>
+        <v>1.4972141942080079</v>
       </c>
       <c r="F65">
-        <v>-1.3285950631737617</v>
+        <v>0.25990563016283785</v>
       </c>
       <c r="G65">
-        <v>1.2067017564604263</v>
+        <v>1.5774914863192504</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,22 +2131,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="D66">
-        <v>-0.72699783872690327</v>
+        <v>-0.71043986186039221</v>
       </c>
       <c r="E66">
-        <v>3.0899085432809104</v>
+        <v>1.2143812072455096</v>
       </c>
       <c r="F66">
-        <v>-0.83900805266823686</v>
+        <v>-0.60391114062719353</v>
       </c>
       <c r="G66">
-        <v>3.1552198384948147</v>
+        <v>1.2287261562694969</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,22 +2154,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D67">
-        <v>-0.24966875709685504</v>
+        <v>-0.44910771926869641</v>
       </c>
       <c r="E67">
-        <v>2.280221155442951</v>
+        <v>1.1807928329803852</v>
       </c>
       <c r="F67">
-        <v>-0.6239571554465424</v>
+        <v>-0.33800897929772483</v>
       </c>
       <c r="G67">
-        <v>2.3432509744329812</v>
+        <v>1.1730430859317862</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,22 +2177,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="D68">
-        <v>0.13630082589195833</v>
+        <v>-1.0669273471685803</v>
       </c>
       <c r="E68">
-        <v>1.238819000917265</v>
+        <v>0.98016611783131913</v>
       </c>
       <c r="F68">
-        <v>-0.45527329764899971</v>
+        <v>-0.93356052401737255</v>
       </c>
       <c r="G68">
-        <v>1.2581485015789577</v>
+        <v>0.99456303810185631</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,22 +2200,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="D69">
-        <v>0.73947907753363662</v>
+        <v>-0.87675146173930041</v>
       </c>
       <c r="E69">
-        <v>1.623818864692931</v>
+        <v>0.83309729983929781</v>
       </c>
       <c r="F69">
-        <v>9.6140019600125373E-2</v>
+        <v>-0.64343659537888409</v>
       </c>
       <c r="G69">
-        <v>1.5887408381239472</v>
+        <v>0.88603917388106213</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,22 +2223,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="D70">
-        <v>-0.38808587311125481</v>
+        <v>-1.1777555722854651</v>
       </c>
       <c r="E70">
-        <v>1.2438488325148027</v>
+        <v>0.55469576386433894</v>
       </c>
       <c r="F70">
-        <v>-1.4054223140690707</v>
+        <v>-0.87171722629963111</v>
       </c>
       <c r="G70">
-        <v>1.6176136502398033</v>
+        <v>0.50161775587435953</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,22 +2246,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C71">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D71">
-        <v>0.38680365250757676</v>
+        <v>-1.0131361097751903</v>
       </c>
       <c r="E71">
-        <v>0.95890961345162873</v>
+        <v>0.55892289784109195</v>
       </c>
       <c r="F71">
-        <v>-0.70102058275914081</v>
+        <v>-0.59056902297968494</v>
       </c>
       <c r="G71">
-        <v>1.2751489454691791</v>
+        <v>0.64927229191541402</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,22 +2269,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="D72">
-        <v>0.59167417000210976</v>
+        <v>0.13804079801460106</v>
       </c>
       <c r="E72">
-        <v>1.1508946287389286</v>
+        <v>1.7234055270329716</v>
       </c>
       <c r="F72">
-        <v>-0.15140950881559068</v>
+        <v>-6.0034189542319998E-3</v>
       </c>
       <c r="G72">
-        <v>1.6397876356890251</v>
+        <v>0.61238566878850997</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,22 +2292,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="D73">
-        <v>0.13457697767555371</v>
+        <v>-0.61897970183427697</v>
       </c>
       <c r="E73">
-        <v>0.92911083106491232</v>
+        <v>0.99808553206732609</v>
       </c>
       <c r="F73">
-        <v>-1.4782615407117137</v>
+        <v>-0.57605943452825703</v>
       </c>
       <c r="G73">
-        <v>1.1123787615765595</v>
+        <v>0.99272964876585046</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,22 +2315,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="D74">
-        <v>-0.29913666857507459</v>
+        <v>-0.48585361912410152</v>
       </c>
       <c r="E74">
-        <v>1.9179398859230004</v>
+        <v>0.75205548709982184</v>
       </c>
       <c r="F74">
-        <v>-0.5032015553275917</v>
+        <v>-0.4064771973215201</v>
       </c>
       <c r="G74">
-        <v>1.9895790667381112</v>
+        <v>0.7583826838505725</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,22 +2338,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="D75">
-        <v>1.0741701878448141E-3</v>
+        <v>-0.3540403759459837</v>
       </c>
       <c r="E75">
-        <v>1.7030310924991874</v>
+        <v>1.3088094165970787</v>
       </c>
       <c r="F75">
-        <v>-1.6197728400694409</v>
+        <v>-0.19111005346692594</v>
       </c>
       <c r="G75">
-        <v>4.315853811983966</v>
+        <v>1.2586373142266247</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,22 +2361,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D76">
-        <v>1.1920188621026448</v>
+        <v>-1.1877470853412089</v>
       </c>
       <c r="E76">
-        <v>1.8693997755752332</v>
+        <v>0.96765512702562007</v>
       </c>
       <c r="F76">
-        <v>0.86206939216922807</v>
+        <v>-0.95261012059879846</v>
       </c>
       <c r="G76">
-        <v>2.0016804776966488</v>
+        <v>1.0170990580381087</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,22 +2384,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="D77">
-        <v>-0.73410113507646135</v>
+        <v>-0.84263201227510687</v>
       </c>
       <c r="E77">
-        <v>1.4349121534057272</v>
+        <v>0.65356719413040365</v>
       </c>
       <c r="F77">
-        <v>-1.4163116539318314</v>
+        <v>-0.56561234414079475</v>
       </c>
       <c r="G77">
-        <v>1.6373200166951476</v>
+        <v>0.66749916376141116</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,1221 +2407,48 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D78">
-        <v>-0.41984767569223946</v>
+        <v>-0.54974344706406875</v>
       </c>
       <c r="E78">
-        <v>1.6049120862380439</v>
+        <v>0.82513334057030463</v>
       </c>
       <c r="F78">
-        <v>-1.5614319649081525</v>
+        <v>-3.9635441661321026E-2</v>
       </c>
       <c r="G78">
-        <v>1.6763998142724776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>-15</v>
-      </c>
-      <c r="D79">
-        <v>-0.2327695289527984</v>
-      </c>
-      <c r="E79">
-        <v>0.93217787775766292</v>
-      </c>
-      <c r="F79">
-        <v>-1.3433779732682098</v>
-      </c>
-      <c r="G79">
-        <v>1.1727320588370946</v>
+        <v>0.86413235604976979</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <f>SUM(D2:D78)/COUNT(D2:D78)</f>
+        <v>-4.1641873358660515</v>
+      </c>
+      <c r="F80">
+        <f t="array" ref="F80">SUM(F2:F78)/COUNT(F2:F78)</f>
+        <v>-3.2602676471452421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B80">
-        <v>14</v>
-      </c>
-      <c r="C80">
-        <v>-10</v>
-      </c>
-      <c r="D80">
-        <v>0.45028479748726224</v>
-      </c>
-      <c r="E80">
-        <v>1.1652037604255043</v>
-      </c>
-      <c r="F80">
-        <v>-0.19445623246391008</v>
-      </c>
-      <c r="G80">
-        <v>1.4773151182172086</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81">
-        <v>14</v>
-      </c>
-      <c r="C81">
-        <v>-5</v>
-      </c>
       <c r="D81">
-        <v>-0.23800182783879062</v>
-      </c>
-      <c r="E81">
-        <v>0.5333649049614575</v>
+        <f>SQRT((SUMSQ(D2:D78))/COUNT(D2:D78))</f>
+        <v>7.1604104157115156</v>
       </c>
       <c r="F81">
-        <v>-1.2636046327491806</v>
-      </c>
-      <c r="G81">
-        <v>0.86627790820275441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82">
-        <v>15</v>
-      </c>
-      <c r="C82">
-        <v>-40</v>
-      </c>
-      <c r="D82">
-        <v>-0.28582984256231414</v>
-      </c>
-      <c r="E82">
-        <v>2.0684392903139632</v>
-      </c>
-      <c r="F82">
-        <v>-0.63355237632906258</v>
-      </c>
-      <c r="G82">
-        <v>2.0484352353327062</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>-35</v>
-      </c>
-      <c r="D83">
-        <v>-0.2105698924537899</v>
-      </c>
-      <c r="E83">
-        <v>2.1263818954833482</v>
-      </c>
-      <c r="F83">
-        <v>-0.58353862411961566</v>
-      </c>
-      <c r="G83">
-        <v>2.3108955425671112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>15</v>
-      </c>
-      <c r="C84">
-        <v>-30</v>
-      </c>
-      <c r="D84">
-        <v>0.74629504284772108</v>
-      </c>
-      <c r="E84">
-        <v>1.2739490509496856</v>
-      </c>
-      <c r="F84">
-        <v>0.29463712837325085</v>
-      </c>
-      <c r="G84">
-        <v>1.5249401473722677</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85">
-        <v>15</v>
-      </c>
-      <c r="C85">
-        <v>-25</v>
-      </c>
-      <c r="D85">
-        <v>-1.0906762923854221</v>
-      </c>
-      <c r="E85">
-        <v>0.94251704218892696</v>
-      </c>
-      <c r="F85">
-        <v>-1.8838438661966859</v>
-      </c>
-      <c r="G85">
-        <v>1.1540485967501544</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86">
-        <v>15</v>
-      </c>
-      <c r="C86">
-        <v>-20</v>
-      </c>
-      <c r="D86">
-        <v>-0.23423229114849864</v>
-      </c>
-      <c r="E86">
-        <v>1.2287694165029728</v>
-      </c>
-      <c r="F86">
-        <v>-0.77031370239711838</v>
-      </c>
-      <c r="G86">
-        <v>1.6134408308717609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87">
-        <v>15</v>
-      </c>
-      <c r="C87">
-        <v>-15</v>
-      </c>
-      <c r="D87">
-        <v>-0.3818306891985811</v>
-      </c>
-      <c r="E87">
-        <v>1.1537352028767367</v>
-      </c>
-      <c r="F87">
-        <v>-0.78543420747095105</v>
-      </c>
-      <c r="G87">
-        <v>1.4373870127436812</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88">
-        <v>15</v>
-      </c>
-      <c r="C88">
-        <v>-10</v>
-      </c>
-      <c r="D88">
-        <v>0.19302239275485267</v>
-      </c>
-      <c r="E88">
-        <v>0.76055146531382711</v>
-      </c>
-      <c r="F88">
-        <v>-0.28452705725148048</v>
-      </c>
-      <c r="G88">
-        <v>0.93913866806835566</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89">
-        <v>15</v>
-      </c>
-      <c r="C89">
-        <v>-5</v>
-      </c>
-      <c r="D89">
-        <v>-0.58603335633860654</v>
-      </c>
-      <c r="E89">
-        <v>0.40967983496420729</v>
-      </c>
-      <c r="F89">
-        <v>-1.1320191141776683</v>
-      </c>
-      <c r="G89">
-        <v>0.88821765029535005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90">
-        <v>16</v>
-      </c>
-      <c r="C90">
-        <v>-40</v>
-      </c>
-      <c r="D90">
-        <v>0.31394901911267253</v>
-      </c>
-      <c r="E90">
-        <v>2.0959052991102123</v>
-      </c>
-      <c r="F90">
-        <v>7.7835796776913393E-2</v>
-      </c>
-      <c r="G90">
-        <v>2.2201084155582245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91">
-        <v>16</v>
-      </c>
-      <c r="C91">
-        <v>-35</v>
-      </c>
-      <c r="D91">
-        <v>-0.6822697170476516</v>
-      </c>
-      <c r="E91">
-        <v>1.2711384708910987</v>
-      </c>
-      <c r="F91">
-        <v>-1.0591416623429344</v>
-      </c>
-      <c r="G91">
-        <v>1.4679689369575908</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92">
-        <v>16</v>
-      </c>
-      <c r="C92">
-        <v>-30</v>
-      </c>
-      <c r="D92">
-        <v>0.28438578701206862</v>
-      </c>
-      <c r="E92">
-        <v>1.3393142552360611</v>
-      </c>
-      <c r="F92">
-        <v>-4.7532939710343671E-3</v>
-      </c>
-      <c r="G92">
-        <v>1.5540683840250309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93">
-        <v>16</v>
-      </c>
-      <c r="C93">
-        <v>-25</v>
-      </c>
-      <c r="D93">
-        <v>-9.3031437073334014E-2</v>
-      </c>
-      <c r="E93">
-        <v>1.279518773388548</v>
-      </c>
-      <c r="F93">
-        <v>-0.49195207652962819</v>
-      </c>
-      <c r="G93">
-        <v>1.5579189270561979</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94">
-        <v>16</v>
-      </c>
-      <c r="C94">
-        <v>-20</v>
-      </c>
-      <c r="D94">
-        <v>-0.2048535528275055</v>
-      </c>
-      <c r="E94">
-        <v>0.87342200674550707</v>
-      </c>
-      <c r="F94">
-        <v>-0.57524247593810585</v>
-      </c>
-      <c r="G94">
-        <v>1.3391970754798828</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95">
-        <v>16</v>
-      </c>
-      <c r="C95">
-        <v>-15</v>
-      </c>
-      <c r="D95">
-        <v>-0.14404569007106716</v>
-      </c>
-      <c r="E95">
-        <v>1.1847144885491421</v>
-      </c>
-      <c r="F95">
-        <v>-0.56110610841307618</v>
-      </c>
-      <c r="G95">
-        <v>1.5382991694062331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>-10</v>
-      </c>
-      <c r="D96">
-        <v>0.2573299069385806</v>
-      </c>
-      <c r="E96">
-        <v>0.54570706321344653</v>
-      </c>
-      <c r="F96">
-        <v>4.2892413490451274E-2</v>
-      </c>
-      <c r="G96">
-        <v>0.67059169906625338</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97">
-        <v>16</v>
-      </c>
-      <c r="C97">
-        <v>-5</v>
-      </c>
-      <c r="D97">
-        <v>-0.2050773830512691</v>
-      </c>
-      <c r="E97">
-        <v>0.69146684834301142</v>
-      </c>
-      <c r="F97">
-        <v>-0.66087441467101959</v>
-      </c>
-      <c r="G97">
-        <v>1.0332747350361315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98">
-        <v>17</v>
-      </c>
-      <c r="C98">
-        <v>-40</v>
-      </c>
-      <c r="D98">
-        <v>-0.13486645033867858</v>
-      </c>
-      <c r="E98">
-        <v>2.6426781103850971</v>
-      </c>
-      <c r="F98">
-        <v>-0.27546011471753057</v>
-      </c>
-      <c r="G98">
-        <v>2.9714539981964161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99">
-        <v>17</v>
-      </c>
-      <c r="C99">
-        <v>-35</v>
-      </c>
-      <c r="D99">
-        <v>-0.71745506566992145</v>
-      </c>
-      <c r="E99">
-        <v>1.06621558289853</v>
-      </c>
-      <c r="F99">
-        <v>-1.7996334705420856</v>
-      </c>
-      <c r="G99">
-        <v>2.4674681227213533</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100">
-        <v>17</v>
-      </c>
-      <c r="C100">
-        <v>-30</v>
-      </c>
-      <c r="D100">
-        <v>-0.89645455760295112</v>
-      </c>
-      <c r="E100">
-        <v>1.2206916877348839</v>
-      </c>
-      <c r="F100">
-        <v>-1.1525758866024449</v>
-      </c>
-      <c r="G100">
-        <v>1.254936364482659</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101">
-        <v>17</v>
-      </c>
-      <c r="C101">
-        <v>-25</v>
-      </c>
-      <c r="D101">
-        <v>-0.40029806918215982</v>
-      </c>
-      <c r="E101">
-        <v>1.47762645128432</v>
-      </c>
-      <c r="F101">
-        <v>-0.98970997987635345</v>
-      </c>
-      <c r="G101">
-        <v>1.8946944628058682</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102">
-        <v>17</v>
-      </c>
-      <c r="C102">
-        <v>-20</v>
-      </c>
-      <c r="D102">
-        <v>-1.8950886101854893E-2</v>
-      </c>
-      <c r="E102">
-        <v>0.51728187164195494</v>
-      </c>
-      <c r="F102">
-        <v>-1.5507803738689674E-2</v>
-      </c>
-      <c r="G102">
-        <v>0.60889387479281754</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103">
-        <v>17</v>
-      </c>
-      <c r="C103">
-        <v>-15</v>
-      </c>
-      <c r="D103">
-        <v>-2.8683324085642069E-2</v>
-      </c>
-      <c r="E103">
-        <v>1.0321042214407032</v>
-      </c>
-      <c r="F103">
-        <v>5.0777526562609233E-2</v>
-      </c>
-      <c r="G103">
-        <v>1.0738070419520407</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104">
-        <v>17</v>
-      </c>
-      <c r="C104">
-        <v>-10</v>
-      </c>
-      <c r="D104">
-        <v>-0.37554719634524891</v>
-      </c>
-      <c r="E104">
-        <v>1.0591016375716273</v>
-      </c>
-      <c r="F104">
-        <v>-0.58307372888270237</v>
-      </c>
-      <c r="G104">
-        <v>1.2262984279752507</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105">
-        <v>17</v>
-      </c>
-      <c r="C105">
-        <v>-5</v>
-      </c>
-      <c r="D105">
-        <v>6.6027718228540699E-2</v>
-      </c>
-      <c r="E105">
-        <v>0.70538764461890013</v>
-      </c>
-      <c r="F105">
-        <v>0.10562343389982871</v>
-      </c>
-      <c r="G105">
-        <v>1.0163144086263043</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106">
-        <v>18</v>
-      </c>
-      <c r="C106">
-        <v>-40</v>
-      </c>
-      <c r="D106">
-        <v>-2.7434659287624542E-2</v>
-      </c>
-      <c r="E106">
-        <v>2.1373549211137752</v>
-      </c>
-      <c r="F106">
-        <v>-1.5490594746041686</v>
-      </c>
-      <c r="G106">
-        <v>4.7014526489466943</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107">
-        <v>18</v>
-      </c>
-      <c r="C107">
-        <v>-35</v>
-      </c>
-      <c r="D107">
-        <v>-0.56367402254173515</v>
-      </c>
-      <c r="E107">
-        <v>0.98837832127430902</v>
-      </c>
-      <c r="F107">
-        <v>-0.67121343454989513</v>
-      </c>
-      <c r="G107">
-        <v>1.0409292249798157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108">
-        <v>18</v>
-      </c>
-      <c r="C108">
-        <v>-30</v>
-      </c>
-      <c r="D108">
-        <v>0.35612195140844527</v>
-      </c>
-      <c r="E108">
-        <v>1.1373491606913395</v>
-      </c>
-      <c r="F108">
-        <v>0.4813413452089314</v>
-      </c>
-      <c r="G108">
-        <v>1.3858557167931862</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109">
-        <v>18</v>
-      </c>
-      <c r="C109">
-        <v>-25</v>
-      </c>
-      <c r="D109">
-        <v>0.29224049919689249</v>
-      </c>
-      <c r="E109">
-        <v>0.74690027292151639</v>
-      </c>
-      <c r="F109">
-        <v>0.36004427947114903</v>
-      </c>
-      <c r="G109">
-        <v>0.94745393992690008</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110">
-        <v>18</v>
-      </c>
-      <c r="C110">
-        <v>-20</v>
-      </c>
-      <c r="D110">
-        <v>8.8334169981288471E-2</v>
-      </c>
-      <c r="E110">
-        <v>0.84898337438911242</v>
-      </c>
-      <c r="F110">
-        <v>0.18764306482551837</v>
-      </c>
-      <c r="G110">
-        <v>1.0890581426546271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111">
-        <v>18</v>
-      </c>
-      <c r="C111">
-        <v>-15</v>
-      </c>
-      <c r="D111">
-        <v>-0.28421183760568314</v>
-      </c>
-      <c r="E111">
-        <v>0.72071693777780232</v>
-      </c>
-      <c r="F111">
-        <v>-0.21160931642734121</v>
-      </c>
-      <c r="G111">
-        <v>0.84925379361411746</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112">
-        <v>18</v>
-      </c>
-      <c r="C112">
-        <v>-10</v>
-      </c>
-      <c r="D112">
-        <v>0.22413561871548673</v>
-      </c>
-      <c r="E112">
-        <v>0.84427467215390162</v>
-      </c>
-      <c r="F112">
-        <v>0.34488952159024111</v>
-      </c>
-      <c r="G112">
-        <v>0.90903229229498428</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113">
-        <v>18</v>
-      </c>
-      <c r="C113">
-        <v>-5</v>
-      </c>
-      <c r="D113">
-        <v>1.6633881473262592E-2</v>
-      </c>
-      <c r="E113">
-        <v>0.73102775020554589</v>
-      </c>
-      <c r="F113">
-        <v>0.25785222150456588</v>
-      </c>
-      <c r="G113">
-        <v>0.96940722765626497</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114">
-        <v>19</v>
-      </c>
-      <c r="C114">
-        <v>-40</v>
-      </c>
-      <c r="D114">
-        <v>9.5277608099748085E-2</v>
-      </c>
-      <c r="E114">
-        <v>1.0930332348591607</v>
-      </c>
-      <c r="F114">
-        <v>0.18151935477065564</v>
-      </c>
-      <c r="G114">
-        <v>1.3826642831791143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115">
-        <v>19</v>
-      </c>
-      <c r="C115">
-        <v>-35</v>
-      </c>
-      <c r="D115">
-        <v>-0.23084736921106597</v>
-      </c>
-      <c r="E115">
-        <v>0.81216521647134743</v>
-      </c>
-      <c r="F115">
-        <v>-4.410555822857809E-2</v>
-      </c>
-      <c r="G115">
-        <v>1.0373263094587435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116">
-        <v>19</v>
-      </c>
-      <c r="C116">
-        <v>-30</v>
-      </c>
-      <c r="D116">
-        <v>-0.18765393778557177</v>
-      </c>
-      <c r="E116">
-        <v>0.88533337583319938</v>
-      </c>
-      <c r="F116">
-        <v>6.875113471628147E-2</v>
-      </c>
-      <c r="G116">
-        <v>1.0566346187200228</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117">
-        <v>19</v>
-      </c>
-      <c r="C117">
-        <v>-25</v>
-      </c>
-      <c r="D117">
-        <v>-1.2227781192977006E-2</v>
-      </c>
-      <c r="E117">
-        <v>0.93318603949817236</v>
-      </c>
-      <c r="F117">
-        <v>0.33236867171552403</v>
-      </c>
-      <c r="G117">
-        <v>1.1258397294844273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118">
-        <v>19</v>
-      </c>
-      <c r="C118">
-        <v>-20</v>
-      </c>
-      <c r="D118">
-        <v>2.4087880667130079E-2</v>
-      </c>
-      <c r="E118">
-        <v>1.1777803841212438</v>
-      </c>
-      <c r="F118">
-        <v>0.4876513370352793</v>
-      </c>
-      <c r="G118">
-        <v>1.5251483423188648</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119">
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <v>-15</v>
-      </c>
-      <c r="D119">
-        <v>-0.15668830967128536</v>
-      </c>
-      <c r="E119">
-        <v>0.96997697923681925</v>
-      </c>
-      <c r="F119">
-        <v>0.23386895115276082</v>
-      </c>
-      <c r="G119">
-        <v>1.0807691207031893</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120">
-        <v>19</v>
-      </c>
-      <c r="C120">
-        <v>-10</v>
-      </c>
-      <c r="D120">
-        <v>-0.17878207283750952</v>
-      </c>
-      <c r="E120">
-        <v>0.57808885380294961</v>
-      </c>
-      <c r="F120">
-        <v>0.12704696041374888</v>
-      </c>
-      <c r="G120">
-        <v>0.76717953039421827</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121">
-        <v>19</v>
-      </c>
-      <c r="C121">
-        <v>-5</v>
-      </c>
-      <c r="D121">
-        <v>0.35645894832695291</v>
-      </c>
-      <c r="E121">
-        <v>0.70098663444958731</v>
-      </c>
-      <c r="F121">
-        <v>0.2785871146476101</v>
-      </c>
-      <c r="G121">
-        <v>0.89886638201496438</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122">
-        <v>20</v>
-      </c>
-      <c r="C122">
-        <v>-40</v>
-      </c>
-      <c r="D122">
-        <v>0.34974604929292352</v>
-      </c>
-      <c r="E122">
-        <v>1.3149357619657371</v>
-      </c>
-      <c r="F122">
-        <v>0.77952034141258009</v>
-      </c>
-      <c r="G122">
-        <v>1.5216020358368563</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123">
-        <v>20</v>
-      </c>
-      <c r="C123">
-        <v>-35</v>
-      </c>
-      <c r="D123">
-        <v>-0.18628135274197355</v>
-      </c>
-      <c r="E123">
-        <v>1.3702777503783208</v>
-      </c>
-      <c r="F123">
-        <v>-0.50925346426975915</v>
-      </c>
-      <c r="G123">
-        <v>2.7475416089751383</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>128</v>
-      </c>
-      <c r="B124">
-        <v>20</v>
-      </c>
-      <c r="C124">
-        <v>-30</v>
-      </c>
-      <c r="D124">
-        <v>0.7150321061563073</v>
-      </c>
-      <c r="E124">
-        <v>1.2235968955436292</v>
-      </c>
-      <c r="F124">
-        <v>1.2929718739733544</v>
-      </c>
-      <c r="G124">
-        <v>1.5767038578530832</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>129</v>
-      </c>
-      <c r="B125">
-        <v>20</v>
-      </c>
-      <c r="C125">
-        <v>-25</v>
-      </c>
-      <c r="D125">
-        <v>-0.25887173589106671</v>
-      </c>
-      <c r="E125">
-        <v>0.88824836406248397</v>
-      </c>
-      <c r="F125">
-        <v>0.22824799368748289</v>
-      </c>
-      <c r="G125">
-        <v>1.0830175318276252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126">
-        <v>20</v>
-      </c>
-      <c r="C126">
-        <v>-20</v>
-      </c>
-      <c r="D126">
-        <v>0.21779025643143726</v>
-      </c>
-      <c r="E126">
-        <v>1.0123479801812933</v>
-      </c>
-      <c r="F126">
-        <v>1.1839164108878382</v>
-      </c>
-      <c r="G126">
-        <v>1.1769495026059926</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127">
-        <v>20</v>
-      </c>
-      <c r="C127">
-        <v>-15</v>
-      </c>
-      <c r="D127">
-        <v>0.51892914310312011</v>
-      </c>
-      <c r="E127">
-        <v>0.62214005141868201</v>
-      </c>
-      <c r="F127">
-        <v>1.6009451896229556</v>
-      </c>
-      <c r="G127">
-        <v>1.071442361731276</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128">
-        <v>20</v>
-      </c>
-      <c r="C128">
-        <v>-10</v>
-      </c>
-      <c r="D128">
-        <v>-0.42521281073438394</v>
-      </c>
-      <c r="E128">
-        <v>0.94975210750441819</v>
-      </c>
-      <c r="F128">
-        <v>-0.41592884707946709</v>
-      </c>
-      <c r="G128">
-        <v>0.85412734442886407</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129">
-        <v>20</v>
-      </c>
-      <c r="C129">
-        <v>-5</v>
-      </c>
-      <c r="D129">
-        <v>9.2101485595551577E-2</v>
-      </c>
-      <c r="E129">
-        <v>0.99119925270489162</v>
-      </c>
-      <c r="F129">
-        <v>0.40402099323553137</v>
-      </c>
-      <c r="G129">
-        <v>1.5236629189123112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131">
-        <f>SUM(D2:D129)/128</f>
-        <v>-0.10504523253863168</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="F131" si="0">SUM(F2:F129)/128</f>
-        <v>-0.56737179462984055</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="D132">
-        <f>SQRT(SUMSQ(D2:D129)/COUNTA(D2:D129))</f>
-        <v>0.81624172902779335</v>
-      </c>
-      <c r="F132">
-        <f t="shared" ref="F132" si="1">SQRT(SUMSQ(F2:F129)/COUNTA(F2:F129))</f>
-        <v>1.1687543241730314</v>
+        <f>SQRT((SUMSQ(F2:F78))/COUNT(F2:F78))</f>
+        <v>4.6246185973118088</v>
       </c>
     </row>
   </sheetData>
